--- a/src/main/java/Util/VIPTestData.xlsx
+++ b/src/main/java/Util/VIPTestData.xlsx
@@ -143,12 +143,6 @@
     <t>Seven11</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>A111</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Mong</t>
+  </si>
+  <si>
+    <t>Kong</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,34 +682,34 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>30</v>
@@ -718,7 +718,7 @@
         <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -730,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>29</v>
@@ -739,22 +739,22 @@
         <v>29</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -765,34 +765,34 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>31</v>
@@ -801,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>33</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>34</v>
@@ -822,22 +822,22 @@
         <v>34</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Util/VIPTestData.xlsx
+++ b/src/main/java/Util/VIPTestData.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
-  <si>
-    <t>sid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>tradingname</t>
   </si>
@@ -129,12 +126,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>0101222222</t>
-  </si>
-  <si>
-    <t>0202333333</t>
   </si>
   <si>
     <t>Mannings</t>
@@ -560,38 +551,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,180 +660,171 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="X3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/src/main/java/Util/VIPTestData.xlsx
+++ b/src/main/java/Util/VIPTestData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19695" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+  <si>
+    <t>Shop Group Name</t>
+  </si>
+  <si>
+    <t>MOKO</t>
+  </si>
   <si>
     <t>tradingname</t>
   </si>
@@ -104,124 +112,148 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Mannings</t>
+  </si>
+  <si>
+    <t>Mong</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>GHD222</t>
+  </si>
+  <si>
+    <t>ANM1</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>F-23</t>
+  </si>
+  <si>
+    <t>Wan Chi</t>
+  </si>
+  <si>
+    <t>Wai</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>547754747</t>
+  </si>
+  <si>
     <t>a@gmail.com</t>
   </si>
   <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>547754747</t>
+    <t>thanks for Shopping</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Good Day</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Seven11</t>
+  </si>
+  <si>
+    <t>Kong</t>
+  </si>
+  <si>
+    <t>A121</t>
+  </si>
+  <si>
+    <t>GHD333</t>
+  </si>
+  <si>
+    <t>ANM2</t>
+  </si>
+  <si>
+    <t>F-21</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
   <si>
     <t>34636636</t>
   </si>
   <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Mannings</t>
-  </si>
-  <si>
-    <t>Seven11</t>
-  </si>
-  <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>A121</t>
-  </si>
-  <si>
-    <t>GHD222</t>
-  </si>
-  <si>
-    <t>GHD333</t>
-  </si>
-  <si>
-    <t>ANM1</t>
-  </si>
-  <si>
-    <t>ANM2</t>
-  </si>
-  <si>
-    <t>Thanks</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>F-23</t>
-  </si>
-  <si>
-    <t>F-21</t>
-  </si>
-  <si>
-    <t>Wan Chi</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>Wai</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>thanks for Shopping</t>
-  </si>
-  <si>
     <t>Welcome Back</t>
   </si>
   <si>
-    <t>Sale</t>
-  </si>
-  <si>
-    <t>Good Day</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
     <t>Two</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Mong</t>
-  </si>
-  <si>
-    <t>Kong</t>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>ShopID</t>
+  </si>
+  <si>
+    <t>PropertyID</t>
+  </si>
+  <si>
+    <t>GrantID</t>
+  </si>
+  <si>
+    <t>T2sdf</t>
+  </si>
+  <si>
+    <t>GC0001</t>
+  </si>
+  <si>
+    <t>HOTELOPS</t>
+  </si>
+  <si>
+    <t>1000000004</t>
   </si>
 </sst>
 </file>
@@ -553,272 +585,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -827,6 +837,76 @@
     <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>